--- a/Results/United/Omega05_10Iter_a_100Scen_HPC.xlsx
+++ b/Results/United/Omega05_10Iter_a_100Scen_HPC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charl\OneDrive\Dokumente\6.Semester\Bachelor-Arbeit\bachelor-thesis\Results\United\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF02637-8497-4848-B635-D74EE2ECB03B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D6CA73-F055-4E52-8583-35149C09C7E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestingFile (21)" sheetId="3" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
